--- a/output/above_50/tRNA-Arg-TCT-2-1.xlsx
+++ b/output/above_50/tRNA-Arg-TCT-2-1.xlsx
@@ -12,96 +12,312 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="102">
   <si>
     <t>chr17</t>
   </si>
   <si>
-    <t>8024280</t>
-  </si>
-  <si>
-    <t>8024303</t>
-  </si>
-  <si>
-    <t>76</t>
+    <t>8023695</t>
+  </si>
+  <si>
+    <t>8023718</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8023698</t>
+  </si>
+  <si>
+    <t>0,200,0</t>
+  </si>
+  <si>
+    <t>128,128.00</t>
+  </si>
+  <si>
+    <t>GTGCAGGTAGCGTGGCCGAG</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>95% (67)</t>
+  </si>
+  <si>
+    <t>93% (73)</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 67, Doench 2016: 95%, Moreno-Mateos: 93%</t>
+  </si>
+  <si>
+    <t>3.19255E+11</t>
+  </si>
+  <si>
+    <t>8023731</t>
+  </si>
+  <si>
+    <t>8023754</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>8023734</t>
+  </si>
+  <si>
+    <t>255,255.00</t>
+  </si>
+  <si>
+    <t>0,255,0</t>
+  </si>
+  <si>
+    <t>AGTCTCTTAGGAGGACAACG</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>100% (77)</t>
+  </si>
+  <si>
+    <t>35% (38)</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 74, Doench 2016: 100%, Moreno-Mateos: 35%</t>
+  </si>
+  <si>
+    <t>3.83717E+11</t>
+  </si>
+  <si>
+    <t>8023732</t>
+  </si>
+  <si>
+    <t>8023755</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>8023735</t>
+  </si>
+  <si>
+    <t>TAGTCTCTTAGGAGGACAAC</t>
+  </si>
+  <si>
+    <t>35% (45)</t>
+  </si>
+  <si>
+    <t>65% (52)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 77, Doench 2016: 35%, Moreno-Mateos: 65%</t>
+  </si>
+  <si>
+    <t>2.00146E+11</t>
+  </si>
+  <si>
+    <t>8023733</t>
+  </si>
+  <si>
+    <t>8023756</t>
+  </si>
+  <si>
+    <t>8023736</t>
+  </si>
+  <si>
+    <t>CTAGTCTCTTAGGAGGACAA</t>
+  </si>
+  <si>
+    <t>92% (65)</t>
+  </si>
+  <si>
+    <t>69% (54)</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 67, Doench 2016: 92%, Moreno-Mateos: 69%</t>
+  </si>
+  <si>
+    <t>3.52301E+11</t>
+  </si>
+  <si>
+    <t>8023740</t>
+  </si>
+  <si>
+    <t>8023763</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>8023743</t>
+  </si>
+  <si>
+    <t>CTTACTTCTAGTCTCTTAGG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>52% (46)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 78, Doench 2016: 78%, Moreno-Mateos: 52%</t>
+  </si>
+  <si>
+    <t>1.62226E+11</t>
+  </si>
+  <si>
+    <t>8023741</t>
+  </si>
+  <si>
+    <t>8023764</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>8024300</t>
-  </si>
-  <si>
-    <t>0,200,0</t>
-  </si>
-  <si>
-    <t>0,255,0</t>
-  </si>
-  <si>
-    <t>TGACGAATAGAGCAATTCAA</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>89% (63)</t>
-  </si>
-  <si>
-    <t>63% (51)</t>
-  </si>
-  <si>
-    <t>77</t>
+    <t>8023761</t>
+  </si>
+  <si>
+    <t>CTCCTAAGAGACTAGAAGTA</t>
+  </si>
+  <si>
+    <t>40% (47)</t>
+  </si>
+  <si>
+    <t>39% (40)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 78, Doench 2016: 40%, Moreno-Mateos: 39%</t>
+  </si>
+  <si>
+    <t>3.54446E+11</t>
+  </si>
+  <si>
+    <t>8023766</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>MIT Spec. Score: 76, Doench 2016: 89%, Moreno-Mateos: 63%</t>
-  </si>
-  <si>
-    <t>3.44233E+11</t>
-  </si>
-  <si>
-    <t>8024286</t>
-  </si>
-  <si>
-    <t>8024309</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>8024306</t>
-  </si>
-  <si>
-    <t>255,255.00</t>
-  </si>
-  <si>
-    <t>128,128.00</t>
-  </si>
-  <si>
-    <t>ATAGAGCAATTCAAAGGTTG</t>
-  </si>
-  <si>
-    <t>TGG</t>
+    <t>8023746</t>
+  </si>
+  <si>
+    <t>255,100,100</t>
+  </si>
+  <si>
+    <t>TTCCTTACTTCTAGTCTCTT</t>
+  </si>
+  <si>
+    <t>8% (29)</t>
+  </si>
+  <si>
+    <t>22% (31)</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 63, Doench 2016: 8%, Moreno-Mateos: 22%</t>
+  </si>
+  <si>
+    <t>1.97076E+11</t>
+  </si>
+  <si>
+    <t>8023747</t>
+  </si>
+  <si>
+    <t>8023770</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>8023767</t>
+  </si>
+  <si>
+    <t>AGAGACTAGAAGTAAGGAAT</t>
   </si>
   <si>
     <t>38% (46)</t>
   </si>
   <si>
-    <t>52% (46)</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 64, Doench 2016: 38%, Moreno-Mateos: 52%</t>
-  </si>
-  <si>
-    <t>82291532851</t>
+    <t>57% (48)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 52, Doench 2016: 38%, Moreno-Mateos: 57%</t>
+  </si>
+  <si>
+    <t>89418078619</t>
+  </si>
+  <si>
+    <t>8023748</t>
+  </si>
+  <si>
+    <t>8023771</t>
+  </si>
+  <si>
+    <t>8023768</t>
+  </si>
+  <si>
+    <t>GAGACTAGAAGTAAGGAATG</t>
+  </si>
+  <si>
+    <t>83% (63)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 52, Doench 2016: 95%, Moreno-Mateos: 83%</t>
+  </si>
+  <si>
+    <t>68678934560</t>
   </si>
 </sst>
 </file>
@@ -146,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -169,10 +385,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -228,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -261,13 +477,426 @@
         <v>26</v>
       </c>
       <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
